--- a/doc/FINALES/RAM.xlsx
+++ b/doc/FINALES/RAM.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14115" windowHeight="4680"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="RAM " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
-  <si>
-    <t>Actividad/rol</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="80">
   <si>
     <t xml:space="preserve">   INICIACIÓN</t>
   </si>
@@ -213,23 +208,59 @@
     <t xml:space="preserve">      manual de usuario</t>
   </si>
   <si>
-    <t>Bustamante</t>
-  </si>
-  <si>
-    <t>Duarte</t>
-  </si>
-  <si>
-    <t>Sanchez</t>
-  </si>
-  <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>responsable</t>
+  </si>
+  <si>
+    <t>Informado</t>
+  </si>
+  <si>
+    <t>Ejecutor</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E </t>
+  </si>
+  <si>
+    <t>ACOTACIONES</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>ACTIVIDAD/ROL</t>
+  </si>
+  <si>
+    <t>BUSTAMANTE</t>
+  </si>
+  <si>
+    <t>DUARTE</t>
+  </si>
+  <si>
+    <t>SÁNCHEZ</t>
+  </si>
+  <si>
+    <t>RS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,7 +277,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -254,14 +284,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,12 +301,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -298,22 +341,304 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="30"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="30"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="30"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,7 +729,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -439,7 +763,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,572 +938,899 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="52.5" thickBot="1">
+      <c r="A1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="F2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30">
+      <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="B28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="B32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="B33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="B35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="B36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="B37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="B40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="B41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="B42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="B43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="B44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="B46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="B47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="B48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="B50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30">
+      <c r="A51" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="B51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30">
+      <c r="A53" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="B53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="B54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="B55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="B56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30">
+      <c r="A57" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="B57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30">
+      <c r="A58" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="B58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="B59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="B61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="B62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="B64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A65" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/FINALES/RAM.xlsx
+++ b/doc/FINALES/RAM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14115" windowHeight="4680"/>
@@ -241,9 +241,6 @@
     <t>Supervisor</t>
   </si>
   <si>
-    <t>ACTIVIDAD/ROL</t>
-  </si>
-  <si>
     <t>BUSTAMANTE</t>
   </si>
   <si>
@@ -254,13 +251,16 @@
   </si>
   <si>
     <t>RS</t>
+  </si>
+  <si>
+    <t>ACTIVIDAD/PARTICIPANTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,68 +577,68 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="30"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="30"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="30"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="30"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="30"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="30"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,6 +729,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -763,6 +764,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -938,50 +940,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="52.5" thickBot="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="19" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="19"/>
+      <c r="F2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="12" t="s">
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -990,18 +992,18 @@
       <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1010,18 +1012,18 @@
       <c r="C4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1030,18 +1032,18 @@
       <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1050,18 +1052,18 @@
       <c r="C6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1070,12 +1072,12 @@
       <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1084,22 +1086,22 @@
       <c r="C8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="10" t="s">
+      <c r="D8" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1108,12 +1110,12 @@
       <c r="C10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1122,12 +1124,12 @@
       <c r="C11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="12" t="s">
+      <c r="D11" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1136,12 +1138,12 @@
       <c r="C12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="12" t="s">
+      <c r="D12" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1150,12 +1152,12 @@
       <c r="C13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="12" t="s">
+      <c r="D13" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1164,12 +1166,12 @@
       <c r="C14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1178,12 +1180,12 @@
       <c r="C15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1192,12 +1194,12 @@
       <c r="C16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="12" t="s">
+      <c r="D16" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1206,12 +1208,12 @@
       <c r="C17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1220,12 +1222,12 @@
       <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="12" t="s">
+      <c r="D18" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1234,22 +1236,22 @@
       <c r="C19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="10" t="s">
+      <c r="D19" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1258,12 +1260,12 @@
       <c r="C21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="12" t="s">
+      <c r="D21" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1272,22 +1274,22 @@
       <c r="C22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="12" t="s">
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1296,12 +1298,12 @@
       <c r="C24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="12" t="s">
+      <c r="D24" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1310,30 +1312,30 @@
       <c r="C25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="10" t="s">
+      <c r="D25" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="12" t="s">
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1342,12 +1344,12 @@
       <c r="C28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1356,20 +1358,20 @@
       <c r="C29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="12" t="s">
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1378,12 +1380,12 @@
       <c r="C31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="12" t="s">
+      <c r="D31" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1392,12 +1394,12 @@
       <c r="C32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="12" t="s">
+      <c r="D32" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1406,20 +1408,20 @@
       <c r="C33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="14" t="s">
+      <c r="D33" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="12" t="s">
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1428,12 +1430,12 @@
       <c r="C35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="12" t="s">
+      <c r="D35" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1442,12 +1444,12 @@
       <c r="C36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="12" t="s">
+      <c r="D36" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1456,30 +1458,30 @@
       <c r="C37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="10" t="s">
+      <c r="D37" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="14" t="s">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="12" t="s">
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1488,12 +1490,12 @@
       <c r="C40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="12" t="s">
+      <c r="D40" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1502,12 +1504,12 @@
       <c r="C41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="12" t="s">
+      <c r="D41" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1516,12 +1518,12 @@
       <c r="C42" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="12" t="s">
+      <c r="D42" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1530,12 +1532,12 @@
       <c r="C43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="12" t="s">
+      <c r="D43" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1544,12 +1546,12 @@
       <c r="C44" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="12" t="s">
+      <c r="D44" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1558,12 +1560,12 @@
       <c r="C45" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="12" t="s">
+      <c r="D45" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1572,12 +1574,12 @@
       <c r="C46" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="12" t="s">
+      <c r="D46" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1586,12 +1588,12 @@
       <c r="C47" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="12" t="s">
+      <c r="D47" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1600,22 +1602,22 @@
       <c r="C48" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="14" t="s">
+      <c r="D48" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1624,12 +1626,12 @@
       <c r="C50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="30">
-      <c r="A51" s="12" t="s">
+      <c r="D50" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1638,12 +1640,12 @@
       <c r="C51" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="12" t="s">
+      <c r="D51" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1652,12 +1654,12 @@
       <c r="C52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="30">
-      <c r="A53" s="12" t="s">
+      <c r="D52" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1666,12 +1668,12 @@
       <c r="C53" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="12" t="s">
+      <c r="D53" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -1680,12 +1682,12 @@
       <c r="C54" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="12" t="s">
+      <c r="D54" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -1694,12 +1696,12 @@
       <c r="C55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="12" t="s">
+      <c r="D55" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -1708,12 +1710,12 @@
       <c r="C56" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="30">
-      <c r="A57" s="12" t="s">
+      <c r="D56" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -1722,12 +1724,12 @@
       <c r="C57" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="30">
-      <c r="A58" s="12" t="s">
+      <c r="D57" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -1736,12 +1738,12 @@
       <c r="C58" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="12" t="s">
+      <c r="D58" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -1750,20 +1752,20 @@
       <c r="C59" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="10" t="s">
+      <c r="D59" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="11"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="12" t="s">
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -1772,12 +1774,12 @@
       <c r="C61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="12" t="s">
+      <c r="D61" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -1786,20 +1788,20 @@
       <c r="C62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="10" t="s">
+      <c r="D62" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="11"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="12" t="s">
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -1808,21 +1810,21 @@
       <c r="C64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D64" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A65" s="16" t="s">
+      <c r="D64" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="18" t="s">
+      <c r="C65" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="16" t="s">
         <v>66</v>
       </c>
     </row>
